--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -392,8 +392,8 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85:I103"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="13">
   <si>
     <t>Paper</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">       NaN</t>
+  </si>
+  <si>
+    <t>totalcharge</t>
   </si>
 </sst>
 </file>
@@ -389,11 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86:K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,7 +405,7 @@
     <col min="9" max="9" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +436,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -465,8 +471,11 @@
       <c r="J2">
         <v>54.980600000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -497,8 +506,11 @@
       <c r="J3">
         <v>4.5448000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -529,8 +541,11 @@
       <c r="J4">
         <v>28.5502</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -561,8 +576,11 @@
       <c r="J5">
         <v>27.429500000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -625,8 +646,11 @@
       <c r="J7">
         <v>46.413400000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -657,8 +681,11 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -689,8 +716,11 @@
       <c r="J9">
         <v>14.136900000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -721,8 +751,11 @@
       <c r="J10">
         <v>11.053599999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -753,8 +786,11 @@
       <c r="J11">
         <v>12.0464</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -785,8 +821,11 @@
       <c r="J12">
         <v>23.254000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -817,8 +856,11 @@
       <c r="J13">
         <v>27.731200000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -849,8 +891,11 @@
       <c r="J14">
         <v>20.055199999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -881,8 +926,11 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -913,8 +961,11 @@
       <c r="J16">
         <v>23.6555</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -945,8 +996,11 @@
       <c r="J17">
         <v>20.040900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -977,8 +1031,11 @@
       <c r="J18">
         <v>18.027000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1066,11 @@
       <c r="J19">
         <v>18.8781</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1041,8 +1101,11 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1073,8 +1136,11 @@
       <c r="J21">
         <v>22.851700000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1171,11 @@
       <c r="J22">
         <v>19.351199999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1137,8 +1206,11 @@
       <c r="J23">
         <v>29.4621</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1241,11 @@
       <c r="J24">
         <v>26.232800000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +1276,11 @@
       <c r="J25">
         <v>21.535799999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1233,8 +1311,11 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1346,11 @@
       <c r="J27">
         <v>11.9384</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1297,8 +1381,11 @@
       <c r="J28">
         <v>235.27930000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1329,8 +1416,11 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +1451,11 @@
       <c r="J30">
         <v>200.3212</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1393,8 +1486,11 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1425,8 +1521,11 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1457,8 +1556,11 @@
       <c r="J33">
         <v>74.996499999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1489,8 +1591,11 @@
       <c r="J34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1521,8 +1626,11 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1553,8 +1661,11 @@
       <c r="J36">
         <v>25.380500000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1585,8 +1696,11 @@
       <c r="J37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1617,8 +1731,11 @@
       <c r="J38">
         <v>58.664299999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1649,8 +1766,11 @@
       <c r="J39">
         <v>39.9392</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1681,8 +1801,11 @@
       <c r="J40">
         <v>69.919899999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +1836,11 @@
       <c r="J41">
         <v>17.587399999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1745,8 +1871,11 @@
       <c r="J42">
         <v>293.96620000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1777,8 +1906,11 @@
       <c r="J43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1809,8 +1941,11 @@
       <c r="J44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1841,8 +1976,11 @@
       <c r="J45">
         <v>8.6424000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1873,8 +2011,11 @@
       <c r="J46">
         <v>81.127799999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1905,8 +2046,11 @@
       <c r="J47">
         <v>13.6678</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1937,8 +2081,11 @@
       <c r="J48">
         <v>7.7915000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1969,8 +2116,11 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2001,8 +2151,11 @@
       <c r="J50">
         <v>9.9685000000000006</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2033,8 +2186,11 @@
       <c r="J51">
         <v>21.3278</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2065,8 +2221,11 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2097,8 +2256,11 @@
       <c r="J53">
         <v>14.8261</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2129,8 +2291,11 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2161,8 +2326,11 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2193,8 +2361,11 @@
       <c r="J56">
         <v>20.695599999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2225,8 +2396,11 @@
       <c r="J57">
         <v>5.1302000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2257,8 +2431,11 @@
       <c r="J58">
         <v>26.991499999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2289,8 +2466,11 @@
       <c r="J59">
         <v>42.048400000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2321,8 +2501,11 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2353,8 +2536,11 @@
       <c r="J61">
         <v>79.8703</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2385,8 +2571,11 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2417,8 +2606,11 @@
       <c r="J63">
         <v>44.9587</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2449,8 +2641,11 @@
       <c r="J64">
         <v>46.389099999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2481,8 +2676,11 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2513,8 +2711,11 @@
       <c r="J66">
         <v>67.378299999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2545,8 +2746,11 @@
       <c r="J67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2577,8 +2781,11 @@
       <c r="J68">
         <v>7.1745000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2609,8 +2816,11 @@
       <c r="J69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2641,8 +2851,11 @@
       <c r="J70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2673,8 +2886,11 @@
       <c r="J71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2705,8 +2921,11 @@
       <c r="J72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2737,8 +2956,11 @@
       <c r="J73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2769,8 +2991,11 @@
       <c r="J74">
         <v>14.1381</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2801,8 +3026,11 @@
       <c r="J75">
         <v>37.241500000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2833,8 +3061,11 @@
       <c r="J76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2865,8 +3096,11 @@
       <c r="J77">
         <v>13.405799999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2897,8 +3131,11 @@
       <c r="J78">
         <v>11.2475</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2929,8 +3166,11 @@
       <c r="J79">
         <v>62.047199999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2961,8 +3201,11 @@
       <c r="J80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2993,8 +3236,11 @@
       <c r="J81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3025,8 +3271,11 @@
       <c r="J82">
         <v>16.517099999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3057,8 +3306,11 @@
       <c r="J83">
         <v>30.268999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -3089,8 +3341,11 @@
       <c r="J84">
         <v>74.629900000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -3121,8 +3376,11 @@
       <c r="J85">
         <v>22.464400000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3153,8 +3411,11 @@
       <c r="J86">
         <v>4.0899000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3185,8 +3446,11 @@
       <c r="J87">
         <v>74.403800000000004</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3217,8 +3481,11 @@
       <c r="J88">
         <v>14.476599999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3249,8 +3516,11 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3281,8 +3551,11 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3313,8 +3586,11 @@
       <c r="J91">
         <v>9.3432999999999993</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3345,8 +3621,11 @@
       <c r="J92">
         <v>7.7527999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3377,8 +3656,11 @@
       <c r="J93">
         <v>11.113300000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3409,8 +3691,11 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3441,8 +3726,11 @@
       <c r="J95">
         <v>43.171399999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3473,8 +3761,11 @@
       <c r="J96">
         <v>74.883600000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3505,8 +3796,11 @@
       <c r="J97">
         <v>13.495100000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K97">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3537,8 +3831,11 @@
       <c r="J98">
         <v>2.8815</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3569,8 +3866,11 @@
       <c r="J99">
         <v>42.137500000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3601,8 +3901,11 @@
       <c r="J100">
         <v>69.138099999999994</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3633,8 +3936,11 @@
       <c r="J101">
         <v>40.148299999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3665,8 +3971,11 @@
       <c r="J102">
         <v>153.7654</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3696,6 +4005,9 @@
       </c>
       <c r="J103">
         <v>48.036799999999999</v>
+      </c>
+      <c r="K103">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="17">
   <si>
     <t>Paper</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">  NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NaN</t>
   </si>
   <si>
     <t xml:space="preserve">   NaN</t>
@@ -419,8 +416,8 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86:K103"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -492,8 +489,8 @@
       <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+      <c r="I2" s="4">
+        <v>-1000</v>
       </c>
       <c r="J2" s="5">
         <v>20.230499999999999</v>
@@ -530,8 +527,8 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
+      <c r="I3" s="4">
+        <v>-1000</v>
       </c>
       <c r="J3" s="5">
         <v>4.6905000000000001</v>
@@ -568,8 +565,8 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
+      <c r="I4" s="4">
+        <v>-1000</v>
       </c>
       <c r="J4" s="5">
         <v>73.634</v>
@@ -606,8 +603,8 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
+      <c r="I5" s="4">
+        <v>-1000</v>
       </c>
       <c r="J5" s="5">
         <v>14.000999999999999</v>
@@ -644,8 +641,8 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
+      <c r="I6" s="4">
+        <v>-1000</v>
       </c>
       <c r="J6" s="5">
         <v>2.8681000000000001</v>
@@ -682,8 +679,8 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
+      <c r="I7" s="4">
+        <v>-1000</v>
       </c>
       <c r="J7" s="5">
         <v>0.17519999999999999</v>
@@ -720,8 +717,8 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
+      <c r="I8" s="4">
+        <v>-1000</v>
       </c>
       <c r="J8" s="5">
         <v>8.9921000000000006</v>
@@ -758,8 +755,8 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
+      <c r="I9" s="4">
+        <v>-1000</v>
       </c>
       <c r="J9" s="5">
         <v>7.5922999999999998</v>
@@ -796,8 +793,8 @@
       <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
+      <c r="I10" s="4">
+        <v>-1000</v>
       </c>
       <c r="J10" s="5">
         <v>12.1075</v>
@@ -834,8 +831,8 @@
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
+      <c r="I11" s="4">
+        <v>-1000</v>
       </c>
       <c r="J11" s="5">
         <v>1.6354</v>
@@ -872,8 +869,8 @@
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
+      <c r="I12" s="4">
+        <v>-1000</v>
       </c>
       <c r="J12" s="5">
         <v>44.887500000000003</v>
@@ -910,8 +907,8 @@
       <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>15</v>
+      <c r="I13" s="4">
+        <v>-1000</v>
       </c>
       <c r="J13" s="5">
         <v>81.242000000000004</v>
@@ -948,8 +945,8 @@
       <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
+      <c r="I14" s="4">
+        <v>-1000</v>
       </c>
       <c r="J14" s="5">
         <v>11.581200000000001</v>
@@ -986,8 +983,8 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>15</v>
+      <c r="I15" s="4">
+        <v>-1000</v>
       </c>
       <c r="J15" s="5">
         <v>3.6126999999999998</v>
@@ -1024,8 +1021,8 @@
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
+      <c r="I16" s="4">
+        <v>-1000</v>
       </c>
       <c r="J16" s="5">
         <v>44.269300000000001</v>
@@ -1062,8 +1059,8 @@
       <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>15</v>
+      <c r="I17" s="4">
+        <v>-1000</v>
       </c>
       <c r="J17" s="5">
         <v>75.5505</v>
@@ -1100,8 +1097,8 @@
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
+      <c r="I18" s="4">
+        <v>-1000</v>
       </c>
       <c r="J18" s="5">
         <v>43.511899999999997</v>
@@ -1138,8 +1135,8 @@
       <c r="H19" s="5">
         <v>5</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>15</v>
+      <c r="I19" s="4">
+        <v>-1000</v>
       </c>
       <c r="J19" s="5">
         <v>145.4306</v>
@@ -1176,8 +1173,8 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>15</v>
+      <c r="I20" s="4">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>48.3367</v>
@@ -1328,8 +1325,8 @@
       <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>16</v>
+      <c r="I24" s="4">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>27.741700000000002</v>
@@ -1366,8 +1363,8 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>16</v>
+      <c r="I25" s="4">
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1442,8 +1439,8 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>16</v>
+      <c r="I27" s="4">
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1708,8 +1705,8 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>16</v>
+      <c r="I34" s="4">
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1898,8 +1895,8 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>16</v>
+      <c r="I39" s="4">
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2126,8 +2123,8 @@
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>15</v>
+      <c r="I45" s="4">
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>13</v>
@@ -2354,8 +2351,8 @@
       <c r="H51" s="5">
         <v>0</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>16</v>
+      <c r="I51" s="4">
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>11</v>
@@ -2468,8 +2465,8 @@
       <c r="H54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>16</v>
+      <c r="I54" s="4">
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>11</v>
@@ -2772,8 +2769,8 @@
       <c r="H62" s="5">
         <v>0</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>16</v>
+      <c r="I62" s="4">
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>11</v>
@@ -2810,8 +2807,8 @@
       <c r="H63" s="5">
         <v>0</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>16</v>
+      <c r="I63" s="4">
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>11</v>
@@ -2924,8 +2921,8 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>16</v>
+      <c r="I66" s="4">
+        <v>-1000</v>
       </c>
       <c r="J66">
         <v>9.3835999999999995</v>
@@ -2962,8 +2959,8 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>16</v>
+      <c r="I67" s="4">
+        <v>-1000</v>
       </c>
       <c r="J67">
         <v>4.4668999999999999</v>
@@ -3000,8 +2997,8 @@
       <c r="H68">
         <v>2</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>16</v>
+      <c r="I68" s="4">
+        <v>-1000</v>
       </c>
       <c r="J68">
         <v>1.194</v>
@@ -3038,8 +3035,8 @@
       <c r="H69">
         <v>2</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>16</v>
+      <c r="I69" s="4">
+        <v>-1000</v>
       </c>
       <c r="J69">
         <v>7.8013000000000003</v>
@@ -3076,8 +3073,8 @@
       <c r="H70">
         <v>2</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>16</v>
+      <c r="I70" s="4">
+        <v>-1000</v>
       </c>
       <c r="J70">
         <v>18.8903</v>
@@ -3114,8 +3111,8 @@
       <c r="H71">
         <v>2</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>16</v>
+      <c r="I71" s="4">
+        <v>-1000</v>
       </c>
       <c r="J71">
         <v>1.3933</v>
@@ -3152,8 +3149,8 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>16</v>
+      <c r="I72" s="4">
+        <v>-1000</v>
       </c>
       <c r="J72">
         <v>12.3691</v>
@@ -3190,8 +3187,8 @@
       <c r="H73">
         <v>2</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>16</v>
+      <c r="I73" s="4">
+        <v>-1000</v>
       </c>
       <c r="J73">
         <v>2.8965999999999998</v>
@@ -3228,8 +3225,8 @@
       <c r="H74">
         <v>0.2</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>16</v>
+      <c r="I74" s="4">
+        <v>-1000</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3266,8 +3263,8 @@
       <c r="H75">
         <v>2</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>16</v>
+      <c r="I75" s="4">
+        <v>-1000</v>
       </c>
       <c r="J75">
         <v>16.726400000000002</v>
@@ -3304,8 +3301,8 @@
       <c r="H76">
         <v>5</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>16</v>
+      <c r="I76" s="4">
+        <v>-1000</v>
       </c>
       <c r="J76">
         <v>2.8871000000000002</v>
@@ -3342,8 +3339,8 @@
       <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>16</v>
+      <c r="I77" s="4">
+        <v>-1000</v>
       </c>
       <c r="J77">
         <v>23.225000000000001</v>
@@ -3380,8 +3377,8 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>16</v>
+      <c r="I78" s="4">
+        <v>-1000</v>
       </c>
       <c r="J78">
         <v>47.206200000000003</v>
@@ -3418,8 +3415,8 @@
       <c r="H79">
         <v>5</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>16</v>
+      <c r="I79" s="4">
+        <v>-1000</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3456,8 +3453,8 @@
       <c r="H80">
         <v>5</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>16</v>
+      <c r="I80" s="4">
+        <v>-1000</v>
       </c>
       <c r="J80">
         <v>70.341999999999999</v>
@@ -3494,8 +3491,8 @@
       <c r="H81">
         <v>5</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>16</v>
+      <c r="I81" s="4">
+        <v>-1000</v>
       </c>
       <c r="J81">
         <v>1.0106999999999999</v>
@@ -3532,8 +3529,8 @@
       <c r="H82">
         <v>5</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>16</v>
+      <c r="I82" s="4">
+        <v>-1000</v>
       </c>
       <c r="J82">
         <v>56.619</v>
@@ -3570,8 +3567,8 @@
       <c r="H83">
         <v>5</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>16</v>
+      <c r="I83" s="4">
+        <v>-1000</v>
       </c>
       <c r="J83">
         <v>43.239699999999999</v>
@@ -3608,8 +3605,8 @@
       <c r="H84">
         <v>5</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>16</v>
+      <c r="I84" s="4">
+        <v>-1000</v>
       </c>
       <c r="J84">
         <v>0.90349999999999997</v>
@@ -3646,8 +3643,8 @@
       <c r="H85">
         <v>5</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>16</v>
+      <c r="I85" s="4">
+        <v>-1000</v>
       </c>
       <c r="J85">
         <v>70.197299999999998</v>
@@ -3684,14 +3681,14 @@
       <c r="H86" s="5">
         <v>1</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>14</v>
+      <c r="I86" s="4">
+        <v>0</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L86" s="5">
         <v>10</v>
@@ -3760,8 +3757,8 @@
       <c r="H88" s="5">
         <v>3</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>16</v>
+      <c r="I88" s="4">
+        <v>0</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>11</v>
@@ -3798,8 +3795,8 @@
       <c r="H89" s="5">
         <v>3</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>16</v>
+      <c r="I89" s="4">
+        <v>0</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>11</v>
@@ -3836,8 +3833,8 @@
       <c r="H90" s="5">
         <v>3</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>16</v>
+      <c r="I90" s="4">
+        <v>0</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>11</v>
@@ -3874,8 +3871,8 @@
       <c r="H91" s="5">
         <v>0</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>16</v>
+      <c r="I91" s="4">
+        <v>0</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>11</v>
@@ -3912,8 +3909,8 @@
       <c r="H92" s="5">
         <v>0</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>16</v>
+      <c r="I92" s="4">
+        <v>0</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>11</v>
@@ -4026,8 +4023,8 @@
       <c r="H95" s="5">
         <v>0</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>16</v>
+      <c r="I95" s="4">
+        <v>0</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>11</v>
@@ -4178,8 +4175,8 @@
       <c r="H99" s="5">
         <v>5</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>16</v>
+      <c r="I99" s="4">
+        <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>11</v>
@@ -4216,8 +4213,8 @@
       <c r="H100" s="5">
         <v>0</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>16</v>
+      <c r="I100" s="4">
+        <v>0</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>11</v>

--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="18">
   <si>
     <t>Paper</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">  NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NaN</t>
   </si>
   <si>
     <t xml:space="preserve">   NaN</t>
@@ -416,8 +419,8 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86:K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -489,8 +492,8 @@
       <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="4">
-        <v>-1000</v>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="5">
         <v>20.230499999999999</v>
@@ -527,8 +530,8 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
-        <v>-1000</v>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J3" s="5">
         <v>4.6905000000000001</v>
@@ -565,8 +568,8 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
-        <v>-1000</v>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="5">
         <v>73.634</v>
@@ -603,8 +606,8 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
-        <v>-1000</v>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="5">
         <v>14.000999999999999</v>
@@ -641,8 +644,8 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
-        <v>-1000</v>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="5">
         <v>2.8681000000000001</v>
@@ -679,8 +682,8 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
-        <v>-1000</v>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="5">
         <v>0.17519999999999999</v>
@@ -717,8 +720,8 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>-1000</v>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="5">
         <v>8.9921000000000006</v>
@@ -755,8 +758,8 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
-        <v>-1000</v>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="5">
         <v>7.5922999999999998</v>
@@ -793,8 +796,8 @@
       <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4">
-        <v>-1000</v>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="5">
         <v>12.1075</v>
@@ -831,8 +834,8 @@
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
-        <v>-1000</v>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="5">
         <v>1.6354</v>
@@ -869,8 +872,8 @@
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
-        <v>-1000</v>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J12" s="5">
         <v>44.887500000000003</v>
@@ -907,8 +910,8 @@
       <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="4">
-        <v>-1000</v>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="5">
         <v>81.242000000000004</v>
@@ -945,8 +948,8 @@
       <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
-        <v>-1000</v>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J14" s="5">
         <v>11.581200000000001</v>
@@ -983,8 +986,8 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="4">
-        <v>-1000</v>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="5">
         <v>3.6126999999999998</v>
@@ -1021,8 +1024,8 @@
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <v>-1000</v>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="5">
         <v>44.269300000000001</v>
@@ -1059,8 +1062,8 @@
       <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="4">
-        <v>-1000</v>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J17" s="5">
         <v>75.5505</v>
@@ -1097,8 +1100,8 @@
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="4">
-        <v>-1000</v>
+      <c r="I18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J18" s="5">
         <v>43.511899999999997</v>
@@ -1135,8 +1138,8 @@
       <c r="H19" s="5">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
-        <v>-1000</v>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="5">
         <v>145.4306</v>
@@ -1173,8 +1176,8 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
-        <v>0</v>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J20">
         <v>48.3367</v>
@@ -1325,8 +1328,8 @@
       <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="4">
-        <v>0</v>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J24">
         <v>27.741700000000002</v>
@@ -1363,8 +1366,8 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1439,8 +1442,8 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="4">
-        <v>0</v>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1705,8 +1708,8 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="4">
-        <v>0</v>
+      <c r="I34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1895,8 +1898,8 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="4">
-        <v>0</v>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2123,8 +2126,8 @@
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="4">
-        <v>0</v>
+      <c r="I45" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>13</v>
@@ -2351,8 +2354,8 @@
       <c r="H51" s="5">
         <v>0</v>
       </c>
-      <c r="I51" s="4">
-        <v>0</v>
+      <c r="I51" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>11</v>
@@ -2465,8 +2468,8 @@
       <c r="H54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" s="4">
-        <v>0</v>
+      <c r="I54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>11</v>
@@ -2769,8 +2772,8 @@
       <c r="H62" s="5">
         <v>0</v>
       </c>
-      <c r="I62" s="4">
-        <v>0</v>
+      <c r="I62" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>11</v>
@@ -2807,8 +2810,8 @@
       <c r="H63" s="5">
         <v>0</v>
       </c>
-      <c r="I63" s="4">
-        <v>0</v>
+      <c r="I63" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>11</v>
@@ -2921,8 +2924,8 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66" s="4">
-        <v>-1000</v>
+      <c r="I66" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J66">
         <v>9.3835999999999995</v>
@@ -2959,8 +2962,8 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c r="I67" s="4">
-        <v>-1000</v>
+      <c r="I67" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J67">
         <v>4.4668999999999999</v>
@@ -2997,8 +3000,8 @@
       <c r="H68">
         <v>2</v>
       </c>
-      <c r="I68" s="4">
-        <v>-1000</v>
+      <c r="I68" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J68">
         <v>1.194</v>
@@ -3035,8 +3038,8 @@
       <c r="H69">
         <v>2</v>
       </c>
-      <c r="I69" s="4">
-        <v>-1000</v>
+      <c r="I69" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J69">
         <v>7.8013000000000003</v>
@@ -3073,8 +3076,8 @@
       <c r="H70">
         <v>2</v>
       </c>
-      <c r="I70" s="4">
-        <v>-1000</v>
+      <c r="I70" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J70">
         <v>18.8903</v>
@@ -3111,8 +3114,8 @@
       <c r="H71">
         <v>2</v>
       </c>
-      <c r="I71" s="4">
-        <v>-1000</v>
+      <c r="I71" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J71">
         <v>1.3933</v>
@@ -3149,8 +3152,8 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72" s="4">
-        <v>-1000</v>
+      <c r="I72" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J72">
         <v>12.3691</v>
@@ -3187,8 +3190,8 @@
       <c r="H73">
         <v>2</v>
       </c>
-      <c r="I73" s="4">
-        <v>-1000</v>
+      <c r="I73" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J73">
         <v>2.8965999999999998</v>
@@ -3225,8 +3228,8 @@
       <c r="H74">
         <v>0.2</v>
       </c>
-      <c r="I74" s="4">
-        <v>-1000</v>
+      <c r="I74" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3263,8 +3266,8 @@
       <c r="H75">
         <v>2</v>
       </c>
-      <c r="I75" s="4">
-        <v>-1000</v>
+      <c r="I75" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J75">
         <v>16.726400000000002</v>
@@ -3301,8 +3304,8 @@
       <c r="H76">
         <v>5</v>
       </c>
-      <c r="I76" s="4">
-        <v>-1000</v>
+      <c r="I76" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J76">
         <v>2.8871000000000002</v>
@@ -3339,8 +3342,8 @@
       <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" s="4">
-        <v>-1000</v>
+      <c r="I77" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J77">
         <v>23.225000000000001</v>
@@ -3377,8 +3380,8 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" s="4">
-        <v>-1000</v>
+      <c r="I78" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J78">
         <v>47.206200000000003</v>
@@ -3415,8 +3418,8 @@
       <c r="H79">
         <v>5</v>
       </c>
-      <c r="I79" s="4">
-        <v>-1000</v>
+      <c r="I79" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3453,8 +3456,8 @@
       <c r="H80">
         <v>5</v>
       </c>
-      <c r="I80" s="4">
-        <v>-1000</v>
+      <c r="I80" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J80">
         <v>70.341999999999999</v>
@@ -3491,8 +3494,8 @@
       <c r="H81">
         <v>5</v>
       </c>
-      <c r="I81" s="4">
-        <v>-1000</v>
+      <c r="I81" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J81">
         <v>1.0106999999999999</v>
@@ -3529,8 +3532,8 @@
       <c r="H82">
         <v>5</v>
       </c>
-      <c r="I82" s="4">
-        <v>-1000</v>
+      <c r="I82" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J82">
         <v>56.619</v>
@@ -3567,8 +3570,8 @@
       <c r="H83">
         <v>5</v>
       </c>
-      <c r="I83" s="4">
-        <v>-1000</v>
+      <c r="I83" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J83">
         <v>43.239699999999999</v>
@@ -3605,8 +3608,8 @@
       <c r="H84">
         <v>5</v>
       </c>
-      <c r="I84" s="4">
-        <v>-1000</v>
+      <c r="I84" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J84">
         <v>0.90349999999999997</v>
@@ -3643,8 +3646,8 @@
       <c r="H85">
         <v>5</v>
       </c>
-      <c r="I85" s="4">
-        <v>-1000</v>
+      <c r="I85" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J85">
         <v>70.197299999999998</v>
@@ -3681,14 +3684,14 @@
       <c r="H86" s="5">
         <v>1</v>
       </c>
-      <c r="I86" s="4">
-        <v>0</v>
+      <c r="I86" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L86" s="5">
         <v>10</v>
@@ -3757,8 +3760,8 @@
       <c r="H88" s="5">
         <v>3</v>
       </c>
-      <c r="I88" s="4">
-        <v>0</v>
+      <c r="I88" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>11</v>
@@ -3795,8 +3798,8 @@
       <c r="H89" s="5">
         <v>3</v>
       </c>
-      <c r="I89" s="4">
-        <v>0</v>
+      <c r="I89" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>11</v>
@@ -3833,8 +3836,8 @@
       <c r="H90" s="5">
         <v>3</v>
       </c>
-      <c r="I90" s="4">
-        <v>0</v>
+      <c r="I90" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>11</v>
@@ -3871,8 +3874,8 @@
       <c r="H91" s="5">
         <v>0</v>
       </c>
-      <c r="I91" s="4">
-        <v>0</v>
+      <c r="I91" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>11</v>
@@ -3909,8 +3912,8 @@
       <c r="H92" s="5">
         <v>0</v>
       </c>
-      <c r="I92" s="4">
-        <v>0</v>
+      <c r="I92" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>11</v>
@@ -4023,8 +4026,8 @@
       <c r="H95" s="5">
         <v>0</v>
       </c>
-      <c r="I95" s="4">
-        <v>0</v>
+      <c r="I95" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>11</v>
@@ -4175,8 +4178,8 @@
       <c r="H99" s="5">
         <v>5</v>
       </c>
-      <c r="I99" s="4">
-        <v>0</v>
+      <c r="I99" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>11</v>
@@ -4213,8 +4216,8 @@
       <c r="H100" s="5">
         <v>0</v>
       </c>
-      <c r="I100" s="4">
-        <v>0</v>
+      <c r="I100" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>11</v>

--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="17">
   <si>
     <t>Paper</t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">  NaN</t>
   </si>
   <si>
-    <t xml:space="preserve"> NaN</t>
-  </si>
-  <si>
     <t xml:space="preserve">   NaN</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,10 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -136,8 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,8 +429,8 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86:K103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -492,8 +502,8 @@
       <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+      <c r="I2" s="4">
+        <v>-1000</v>
       </c>
       <c r="J2" s="5">
         <v>20.230499999999999</v>
@@ -530,8 +540,8 @@
       <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
+      <c r="I3" s="4">
+        <v>-1000</v>
       </c>
       <c r="J3" s="5">
         <v>4.6905000000000001</v>
@@ -568,8 +578,8 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
+      <c r="I4" s="4">
+        <v>-1000</v>
       </c>
       <c r="J4" s="5">
         <v>73.634</v>
@@ -606,8 +616,8 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
+      <c r="I5" s="4">
+        <v>-1000</v>
       </c>
       <c r="J5" s="5">
         <v>14.000999999999999</v>
@@ -644,8 +654,8 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
+      <c r="I6" s="4">
+        <v>-1000</v>
       </c>
       <c r="J6" s="5">
         <v>2.8681000000000001</v>
@@ -682,8 +692,8 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
+      <c r="I7" s="4">
+        <v>-1000</v>
       </c>
       <c r="J7" s="5">
         <v>0.17519999999999999</v>
@@ -720,8 +730,8 @@
       <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
+      <c r="I8" s="4">
+        <v>-1000</v>
       </c>
       <c r="J8" s="5">
         <v>8.9921000000000006</v>
@@ -758,8 +768,8 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
+      <c r="I9" s="4">
+        <v>-1000</v>
       </c>
       <c r="J9" s="5">
         <v>7.5922999999999998</v>
@@ -796,8 +806,8 @@
       <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
+      <c r="I10" s="4">
+        <v>-1000</v>
       </c>
       <c r="J10" s="5">
         <v>12.1075</v>
@@ -834,8 +844,8 @@
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>15</v>
+      <c r="I11" s="4">
+        <v>-1000</v>
       </c>
       <c r="J11" s="5">
         <v>1.6354</v>
@@ -872,8 +882,8 @@
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
+      <c r="I12" s="4">
+        <v>-1000</v>
       </c>
       <c r="J12" s="5">
         <v>44.887500000000003</v>
@@ -910,8 +920,8 @@
       <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>15</v>
+      <c r="I13" s="4">
+        <v>-1000</v>
       </c>
       <c r="J13" s="5">
         <v>81.242000000000004</v>
@@ -948,8 +958,8 @@
       <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
+      <c r="I14" s="4">
+        <v>-1000</v>
       </c>
       <c r="J14" s="5">
         <v>11.581200000000001</v>
@@ -986,8 +996,8 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>15</v>
+      <c r="I15" s="4">
+        <v>-1000</v>
       </c>
       <c r="J15" s="5">
         <v>3.6126999999999998</v>
@@ -1024,8 +1034,8 @@
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
+      <c r="I16" s="4">
+        <v>-1000</v>
       </c>
       <c r="J16" s="5">
         <v>44.269300000000001</v>
@@ -1062,8 +1072,8 @@
       <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>15</v>
+      <c r="I17" s="4">
+        <v>-1000</v>
       </c>
       <c r="J17" s="5">
         <v>75.5505</v>
@@ -1100,8 +1110,8 @@
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
+      <c r="I18" s="4">
+        <v>-1000</v>
       </c>
       <c r="J18" s="5">
         <v>43.511899999999997</v>
@@ -1138,8 +1148,8 @@
       <c r="H19" s="5">
         <v>5</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>15</v>
+      <c r="I19" s="4">
+        <v>-1000</v>
       </c>
       <c r="J19" s="5">
         <v>145.4306</v>
@@ -1176,8 +1186,8 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>15</v>
+      <c r="I20" s="4">
+        <v>-1000</v>
       </c>
       <c r="J20">
         <v>48.3367</v>
@@ -1328,8 +1338,8 @@
       <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>16</v>
+      <c r="I24" s="4">
+        <v>-1000</v>
       </c>
       <c r="J24">
         <v>27.741700000000002</v>
@@ -1366,8 +1376,8 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>16</v>
+      <c r="I25" s="4">
+        <v>-1000</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1442,8 +1452,8 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>16</v>
+      <c r="I27" s="4">
+        <v>-1000</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1708,8 +1718,8 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>16</v>
+      <c r="I34" s="4">
+        <v>-1000</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1898,8 +1908,8 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>16</v>
+      <c r="I39" s="4">
+        <v>-1000</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -2126,8 +2136,8 @@
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>15</v>
+      <c r="I45" s="4">
+        <v>-1000</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>13</v>
@@ -2354,8 +2364,8 @@
       <c r="H51" s="5">
         <v>0</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>16</v>
+      <c r="I51" s="4">
+        <v>-1000</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>11</v>
@@ -2468,8 +2478,8 @@
       <c r="H54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>16</v>
+      <c r="I54" s="4">
+        <v>-1000</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>11</v>
@@ -2772,8 +2782,8 @@
       <c r="H62" s="5">
         <v>0</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>16</v>
+      <c r="I62" s="4">
+        <v>-1000</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>11</v>
@@ -2810,8 +2820,8 @@
       <c r="H63" s="5">
         <v>0</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>16</v>
+      <c r="I63" s="4">
+        <v>-1000</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>11</v>
@@ -2895,7 +2905,7 @@
       <c r="K65" s="5">
         <v>6.7161</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2924,8 +2934,8 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>16</v>
+      <c r="I66" s="4">
+        <v>-1000</v>
       </c>
       <c r="J66">
         <v>9.3835999999999995</v>
@@ -2962,8 +2972,8 @@
       <c r="H67">
         <v>2</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>16</v>
+      <c r="I67" s="4">
+        <v>-1000</v>
       </c>
       <c r="J67">
         <v>4.4668999999999999</v>
@@ -3000,8 +3010,8 @@
       <c r="H68">
         <v>2</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>16</v>
+      <c r="I68" s="4">
+        <v>-1000</v>
       </c>
       <c r="J68">
         <v>1.194</v>
@@ -3038,8 +3048,8 @@
       <c r="H69">
         <v>2</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>16</v>
+      <c r="I69" s="4">
+        <v>-1000</v>
       </c>
       <c r="J69">
         <v>7.8013000000000003</v>
@@ -3076,8 +3086,8 @@
       <c r="H70">
         <v>2</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>16</v>
+      <c r="I70" s="4">
+        <v>-1000</v>
       </c>
       <c r="J70">
         <v>18.8903</v>
@@ -3114,8 +3124,8 @@
       <c r="H71">
         <v>2</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>16</v>
+      <c r="I71" s="4">
+        <v>-1000</v>
       </c>
       <c r="J71">
         <v>1.3933</v>
@@ -3152,8 +3162,8 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>16</v>
+      <c r="I72" s="4">
+        <v>-1000</v>
       </c>
       <c r="J72">
         <v>12.3691</v>
@@ -3190,8 +3200,8 @@
       <c r="H73">
         <v>2</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>16</v>
+      <c r="I73" s="4">
+        <v>-1000</v>
       </c>
       <c r="J73">
         <v>2.8965999999999998</v>
@@ -3228,8 +3238,8 @@
       <c r="H74">
         <v>0.2</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>16</v>
+      <c r="I74" s="4">
+        <v>-1000</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3266,8 +3276,8 @@
       <c r="H75">
         <v>2</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>16</v>
+      <c r="I75" s="4">
+        <v>-1000</v>
       </c>
       <c r="J75">
         <v>16.726400000000002</v>
@@ -3304,8 +3314,8 @@
       <c r="H76">
         <v>5</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>16</v>
+      <c r="I76" s="4">
+        <v>-1000</v>
       </c>
       <c r="J76">
         <v>2.8871000000000002</v>
@@ -3342,8 +3352,8 @@
       <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>16</v>
+      <c r="I77" s="4">
+        <v>-1000</v>
       </c>
       <c r="J77">
         <v>23.225000000000001</v>
@@ -3380,8 +3390,8 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>16</v>
+      <c r="I78" s="4">
+        <v>-1000</v>
       </c>
       <c r="J78">
         <v>47.206200000000003</v>
@@ -3418,8 +3428,8 @@
       <c r="H79">
         <v>5</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>16</v>
+      <c r="I79" s="4">
+        <v>-1000</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3456,8 +3466,8 @@
       <c r="H80">
         <v>5</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>16</v>
+      <c r="I80" s="4">
+        <v>-1000</v>
       </c>
       <c r="J80">
         <v>70.341999999999999</v>
@@ -3494,8 +3504,8 @@
       <c r="H81">
         <v>5</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>16</v>
+      <c r="I81" s="4">
+        <v>-1000</v>
       </c>
       <c r="J81">
         <v>1.0106999999999999</v>
@@ -3532,8 +3542,8 @@
       <c r="H82">
         <v>5</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>16</v>
+      <c r="I82" s="4">
+        <v>-1000</v>
       </c>
       <c r="J82">
         <v>56.619</v>
@@ -3570,8 +3580,8 @@
       <c r="H83">
         <v>5</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>16</v>
+      <c r="I83" s="4">
+        <v>-1000</v>
       </c>
       <c r="J83">
         <v>43.239699999999999</v>
@@ -3608,8 +3618,8 @@
       <c r="H84">
         <v>5</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>16</v>
+      <c r="I84" s="4">
+        <v>-1000</v>
       </c>
       <c r="J84">
         <v>0.90349999999999997</v>
@@ -3646,8 +3656,8 @@
       <c r="H85">
         <v>5</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>16</v>
+      <c r="I85" s="4">
+        <v>-1000</v>
       </c>
       <c r="J85">
         <v>70.197299999999998</v>
@@ -3684,14 +3694,14 @@
       <c r="H86" s="5">
         <v>1</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>14</v>
+      <c r="I86" s="4">
+        <v>-1000</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L86" s="5">
         <v>10</v>
@@ -3760,8 +3770,8 @@
       <c r="H88" s="5">
         <v>3</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>16</v>
+      <c r="I88" s="4">
+        <v>-1000</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>11</v>
@@ -3798,8 +3808,8 @@
       <c r="H89" s="5">
         <v>3</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>16</v>
+      <c r="I89" s="4">
+        <v>-1000</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>11</v>
@@ -3836,8 +3846,8 @@
       <c r="H90" s="5">
         <v>3</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>16</v>
+      <c r="I90" s="4">
+        <v>-1000</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>11</v>
@@ -3874,8 +3884,8 @@
       <c r="H91" s="5">
         <v>0</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>16</v>
+      <c r="I91" s="4">
+        <v>-1000</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>11</v>
@@ -3912,8 +3922,8 @@
       <c r="H92" s="5">
         <v>0</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>16</v>
+      <c r="I92" s="4">
+        <v>-1000</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>11</v>
@@ -4026,8 +4036,8 @@
       <c r="H95" s="5">
         <v>0</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>16</v>
+      <c r="I95" s="4">
+        <v>-1000</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>11</v>
@@ -4178,8 +4188,8 @@
       <c r="H99" s="5">
         <v>5</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>16</v>
+      <c r="I99" s="4">
+        <v>-1000</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>11</v>
@@ -4216,8 +4226,8 @@
       <c r="H100" s="5">
         <v>0</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>16</v>
+      <c r="I100" s="4">
+        <v>-1000</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>11</v>

--- a/datasets/Winawer2016_data.xlsx
+++ b/datasets/Winawer2016_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical_new\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,14 +429,14 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N86" sqref="N86:N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="8.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
